--- a/DataFiles/LoginCredentialsData.xlsx
+++ b/DataFiles/LoginCredentialsData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -35,9 +35,6 @@
     <t>standard_user</t>
   </si>
   <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
     <t>problem_user</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>0 To 4</t>
+  </si>
+  <si>
+    <t>Incorrect_sauce</t>
   </si>
 </sst>
 </file>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -518,20 +518,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -539,33 +539,20 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
